--- a/biology/Zoologie/Donacia/Donacia.xlsx
+++ b/biology/Zoologie/Donacia/Donacia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Donacia (du grec donax, « roseau », allusion à leur milieu de vie) est un genre d'insectes coléoptères chrysomélidés, de la sous-famille des Donaciinae. 
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Donacia est décrit par Fabricius en 1775[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Donacia est décrit par Fabricius en 1775,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les larves de ces insectes siphonnent l'oxygène des lacunes aérifères des plantes aquatiques (roseau, carex) en les piquant à l'aide de l'éperon de leur huitième stigmate abdominal[3]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les larves de ces insectes siphonnent l'oxygène des lacunes aérifères des plantes aquatiques (roseau, carex) en les piquant à l'aide de l'éperon de leur huitième stigmate abdominal. 
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des espèces rencontrées en Europe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Fauna Europaea                                      (15 février 2014)[4]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Fauna Europaea                                      (15 février 2014)
 Donacia aequidorsis
 Donacia andalusiaca
 Donacia antiqua
@@ -637,9 +655,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (29 août 2014)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (29 août 2014) :
 Donacia assimilis
 Donacia biimpressa
 Donacia caerulea
@@ -699,9 +719,11 @@
           <t>Liste des sous-genres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (29 août 2014)[6] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (29 août 2014) :
 sous-genre Donacia (Donacia) Fabricius, 1775
 sous-genre Donacia (Donaciomima) Medvedev, 1973</t>
         </is>
@@ -731,9 +753,11 @@
           <t>Espèces fossiles</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Paleobiology Database en 2023, les espèces fossiles référencées sont au nombre de vingt-sept[2] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, les espèces fossiles référencées sont au nombre de vingt-sept :
 †Donacia anetae, Bienkowski 2015
 †Donacia cinerea, Herbst 1784
 †Donacia connelli, Cockerell 1927 ou D. conelli
@@ -760,7 +784,7 @@
 †Donacia voigti, Goecke 1943
 †Donacia weigelti, Goecke 1943
 †Donacia weylandi, Goecke 1960
-†Donacia wightoni, Askevold 1990 ou D. (Donacia) wightoni[2]
+†Donacia wightoni, Askevold 1990 ou D. (Donacia) wightoni
 </t>
         </is>
       </c>
